--- a/artfynd/A 17046-2023.xlsx
+++ b/artfynd/A 17046-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112085339</v>
+        <v>112085312</v>
       </c>
       <c r="B2" t="n">
-        <v>88819</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5685</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508229.101282431</v>
+        <v>508234.7366979693</v>
       </c>
       <c r="R2" t="n">
-        <v>6545096.098031419</v>
+        <v>6545112.059917295</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112085285</v>
+        <v>112086207</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508238.922007205</v>
+        <v>508212.5959613327</v>
       </c>
       <c r="R3" t="n">
-        <v>6545083.256348289</v>
+        <v>6544860.924274493</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112085312</v>
+        <v>112085339</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>88819</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>5685</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508234.7366979693</v>
+        <v>508229.101282431</v>
       </c>
       <c r="R4" t="n">
-        <v>6545112.059917295</v>
+        <v>6545096.098031419</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1019,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112086235</v>
+        <v>112085285</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508212.5959613327</v>
+        <v>508238.922007205</v>
       </c>
       <c r="R5" t="n">
-        <v>6544860.924274493</v>
+        <v>6545083.256348289</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1110,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112086207</v>
+        <v>112086079</v>
       </c>
       <c r="B6" t="n">
-        <v>56414</v>
+        <v>90658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508212.5959613327</v>
+        <v>508186.1637302513</v>
       </c>
       <c r="R6" t="n">
-        <v>6544860.924274493</v>
+        <v>6544928.272110886</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1219,11 +1224,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112086407</v>
+        <v>112086235</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>93388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508249.3041149615</v>
+        <v>508212.5959613327</v>
       </c>
       <c r="R8" t="n">
-        <v>6544809.548572578</v>
+        <v>6544860.924274493</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1455,11 +1455,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1599,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112086079</v>
+        <v>112086407</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>56414</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508186.1637302513</v>
+        <v>508249.3041149615</v>
       </c>
       <c r="R10" t="n">
-        <v>6544928.272110886</v>
+        <v>6544809.548572578</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1686,6 +1681,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 17046-2023.xlsx
+++ b/artfynd/A 17046-2023.xlsx
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112086207</v>
+        <v>112086407</v>
       </c>
       <c r="B3" t="n">
         <v>56414</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508212.5959613327</v>
+        <v>508249.3041149615</v>
       </c>
       <c r="R3" t="n">
-        <v>6544860.924274493</v>
+        <v>6544809.548572578</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112085339</v>
+        <v>112086079</v>
       </c>
       <c r="B4" t="n">
-        <v>88819</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5685</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508229.101282431</v>
+        <v>508186.1637302513</v>
       </c>
       <c r="R4" t="n">
-        <v>6545096.098031419</v>
+        <v>6544928.272110886</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112085285</v>
+        <v>112085469</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508238.922007205</v>
+        <v>508219.4096938106</v>
       </c>
       <c r="R5" t="n">
-        <v>6545083.256348289</v>
+        <v>6545048.742006347</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1110,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112086079</v>
+        <v>112085339</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>88819</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>5685</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508186.1637302513</v>
+        <v>508229.101282431</v>
       </c>
       <c r="R6" t="n">
-        <v>6544928.272110886</v>
+        <v>6545096.098031419</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1213,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112085469</v>
+        <v>112085285</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>508219.4096938106</v>
+        <v>508238.922007205</v>
       </c>
       <c r="R7" t="n">
-        <v>6545048.742006347</v>
+        <v>6545083.256348289</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1326,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1336,12 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112086235</v>
+        <v>112086207</v>
       </c>
       <c r="B8" t="n">
-        <v>93388</v>
+        <v>56414</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1455,6 +1455,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1594,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112086407</v>
+        <v>112086235</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>93388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1606,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508249.3041149615</v>
+        <v>508212.5959613327</v>
       </c>
       <c r="R10" t="n">
-        <v>6544809.548572578</v>
+        <v>6544860.924274493</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1681,11 +1686,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 17046-2023.xlsx
+++ b/artfynd/A 17046-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112085312</v>
+        <v>112085285</v>
       </c>
       <c r="B2" t="n">
         <v>89405</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508234.7366979693</v>
+        <v>508239</v>
       </c>
       <c r="R2" t="n">
-        <v>6545112.059917295</v>
+        <v>6545083</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112086407</v>
+        <v>112086207</v>
       </c>
       <c r="B3" t="n">
         <v>56414</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508249.3041149615</v>
+        <v>508213</v>
       </c>
       <c r="R3" t="n">
-        <v>6544809.548572578</v>
+        <v>6544861</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508186.1637302513</v>
+        <v>508186</v>
       </c>
       <c r="R4" t="n">
-        <v>6544928.272110886</v>
+        <v>6544928</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508219.4096938106</v>
+        <v>508219</v>
       </c>
       <c r="R5" t="n">
-        <v>6545048.742006347</v>
+        <v>6545049</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112085339</v>
+        <v>112086235</v>
       </c>
       <c r="B6" t="n">
-        <v>88819</v>
+        <v>93388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,21 +1158,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5685</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508229.101282431</v>
+        <v>508213</v>
       </c>
       <c r="R6" t="n">
-        <v>6545096.098031419</v>
+        <v>6544861</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112085285</v>
+        <v>112085312</v>
       </c>
       <c r="B7" t="n">
         <v>89405</v>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>508238.922007205</v>
+        <v>508235</v>
       </c>
       <c r="R7" t="n">
-        <v>6545083.256348289</v>
+        <v>6545112</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112086207</v>
+        <v>112085339</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>88819</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>5685</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508212.5959613327</v>
+        <v>508229</v>
       </c>
       <c r="R8" t="n">
-        <v>6544860.924274493</v>
+        <v>6545096</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,12 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1486,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112085668</v>
+        <v>112086407</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>56414</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,21 +1497,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1527,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>508187.6342495474</v>
+        <v>508249</v>
       </c>
       <c r="R9" t="n">
-        <v>6544963.7778405</v>
+        <v>6544810</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1562,7 +1557,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1572,7 +1567,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112086235</v>
+        <v>112085668</v>
       </c>
       <c r="B10" t="n">
-        <v>93388</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508212.5959613327</v>
+        <v>508188</v>
       </c>
       <c r="R10" t="n">
-        <v>6544860.924274493</v>
+        <v>6544964</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 17046-2023.xlsx
+++ b/artfynd/A 17046-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112085285</v>
+        <v>112086407</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>56446</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508239</v>
+        <v>508249</v>
       </c>
       <c r="R2" t="n">
-        <v>6545083</v>
+        <v>6544810</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112086207</v>
+        <v>112086079</v>
       </c>
       <c r="B3" t="n">
-        <v>56414</v>
+        <v>90792</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508213</v>
+        <v>508186</v>
       </c>
       <c r="R3" t="n">
-        <v>6544861</v>
+        <v>6544928</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -880,11 +885,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112086079</v>
+        <v>112086235</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>93539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>2180</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508186</v>
+        <v>508213</v>
       </c>
       <c r="R4" t="n">
-        <v>6544928</v>
+        <v>6544861</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112085469</v>
+        <v>112085339</v>
       </c>
       <c r="B5" t="n">
-        <v>56414</v>
+        <v>88953</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>5685</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508219</v>
+        <v>508229</v>
       </c>
       <c r="R5" t="n">
-        <v>6545049</v>
+        <v>6545096</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1111,11 +1111,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112086235</v>
+        <v>112085469</v>
       </c>
       <c r="B6" t="n">
-        <v>93388</v>
+        <v>56446</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1149,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1183,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508213</v>
+        <v>508219</v>
       </c>
       <c r="R6" t="n">
-        <v>6544861</v>
+        <v>6545049</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1218,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1223,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112085312</v>
+        <v>112085285</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>508235</v>
+        <v>508239</v>
       </c>
       <c r="R7" t="n">
-        <v>6545112</v>
+        <v>6545083</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112085339</v>
+        <v>112085668</v>
       </c>
       <c r="B8" t="n">
-        <v>88819</v>
+        <v>89539</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,25 +1380,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5685</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508229</v>
+        <v>508188</v>
       </c>
       <c r="R8" t="n">
-        <v>6545096</v>
+        <v>6544964</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112086407</v>
+        <v>112085312</v>
       </c>
       <c r="B9" t="n">
-        <v>56414</v>
+        <v>89539</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1497,21 +1497,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>508249</v>
+        <v>508235</v>
       </c>
       <c r="R9" t="n">
-        <v>6544810</v>
+        <v>6545112</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1567,12 +1567,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112085668</v>
+        <v>112086207</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>56446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1610,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1635,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508188</v>
+        <v>508213</v>
       </c>
       <c r="R10" t="n">
-        <v>6544964</v>
+        <v>6544861</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1670,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1680,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 17046-2023.xlsx
+++ b/artfynd/A 17046-2023.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112086079</v>
+        <v>112085339</v>
       </c>
       <c r="B3" t="n">
-        <v>90792</v>
+        <v>88967</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>5685</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508186</v>
+        <v>508229</v>
       </c>
       <c r="R3" t="n">
-        <v>6544928</v>
+        <v>6545096</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112086235</v>
+        <v>112085668</v>
       </c>
       <c r="B4" t="n">
-        <v>93539</v>
+        <v>89553</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508213</v>
+        <v>508188</v>
       </c>
       <c r="R4" t="n">
-        <v>6544861</v>
+        <v>6544964</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112085339</v>
+        <v>112085312</v>
       </c>
       <c r="B5" t="n">
-        <v>88953</v>
+        <v>89553</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,25 +1036,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5685</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508229</v>
+        <v>508235</v>
       </c>
       <c r="R5" t="n">
-        <v>6545096</v>
+        <v>6545112</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112085469</v>
+        <v>112086207</v>
       </c>
       <c r="B6" t="n">
         <v>56446</v>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508219</v>
+        <v>508213</v>
       </c>
       <c r="R6" t="n">
-        <v>6545049</v>
+        <v>6544861</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112085285</v>
+        <v>112085469</v>
       </c>
       <c r="B7" t="n">
-        <v>89539</v>
+        <v>56446</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>508239</v>
+        <v>508219</v>
       </c>
       <c r="R7" t="n">
-        <v>6545083</v>
+        <v>6545049</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,7 +1341,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,10 +1373,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112085668</v>
+        <v>112085285</v>
       </c>
       <c r="B8" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1409,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508188</v>
+        <v>508239</v>
       </c>
       <c r="R8" t="n">
-        <v>6544964</v>
+        <v>6545083</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1444,7 +1449,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1454,7 +1459,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1481,10 +1486,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112085312</v>
+        <v>112086235</v>
       </c>
       <c r="B9" t="n">
-        <v>89539</v>
+        <v>93553</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,25 +1498,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1522,10 +1527,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>508235</v>
+        <v>508213</v>
       </c>
       <c r="R9" t="n">
-        <v>6545112</v>
+        <v>6544861</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1557,7 +1562,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1567,7 +1572,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112086207</v>
+        <v>112086079</v>
       </c>
       <c r="B10" t="n">
-        <v>56446</v>
+        <v>90806</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1610,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1635,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508213</v>
+        <v>508186</v>
       </c>
       <c r="R10" t="n">
-        <v>6544861</v>
+        <v>6544928</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1681,11 +1686,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 17046-2023.xlsx
+++ b/artfynd/A 17046-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112086407</v>
+        <v>112085668</v>
       </c>
       <c r="B2" t="n">
-        <v>56446</v>
+        <v>89553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>508249</v>
+        <v>508188</v>
       </c>
       <c r="R2" t="n">
-        <v>6544810</v>
+        <v>6544964</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112085339</v>
+        <v>112085469</v>
       </c>
       <c r="B3" t="n">
-        <v>88967</v>
+        <v>56446</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5685</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508229</v>
+        <v>508219</v>
       </c>
       <c r="R3" t="n">
-        <v>6545096</v>
+        <v>6545049</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -885,6 +880,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,7 +911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112085668</v>
+        <v>112085285</v>
       </c>
       <c r="B4" t="n">
         <v>89553</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508188</v>
+        <v>508239</v>
       </c>
       <c r="R4" t="n">
-        <v>6544964</v>
+        <v>6545083</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112085312</v>
+        <v>112086407</v>
       </c>
       <c r="B5" t="n">
-        <v>89553</v>
+        <v>56446</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>508235</v>
+        <v>508249</v>
       </c>
       <c r="R5" t="n">
-        <v>6545112</v>
+        <v>6544810</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1110,7 +1110,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112086207</v>
+        <v>112085312</v>
       </c>
       <c r="B6" t="n">
-        <v>56446</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1158,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1183,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508213</v>
+        <v>508235</v>
       </c>
       <c r="R6" t="n">
-        <v>6544861</v>
+        <v>6545112</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1213,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1223,12 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:15</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112085469</v>
+        <v>112086235</v>
       </c>
       <c r="B7" t="n">
-        <v>56446</v>
+        <v>93553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,25 +1267,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1296,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>508219</v>
+        <v>508213</v>
       </c>
       <c r="R7" t="n">
-        <v>6545049</v>
+        <v>6544861</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1341,12 +1341,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1373,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112085285</v>
+        <v>112086079</v>
       </c>
       <c r="B8" t="n">
-        <v>89553</v>
+        <v>90806</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1389,21 +1384,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1414,10 +1409,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508239</v>
+        <v>508186</v>
       </c>
       <c r="R8" t="n">
-        <v>6545083</v>
+        <v>6544928</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1449,7 +1444,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1459,7 +1454,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1486,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112086235</v>
+        <v>112086207</v>
       </c>
       <c r="B9" t="n">
-        <v>93553</v>
+        <v>56446</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1573,6 +1568,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>13:15</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112086079</v>
+        <v>112085339</v>
       </c>
       <c r="B10" t="n">
-        <v>90806</v>
+        <v>88967</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>5685</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>508186</v>
+        <v>508229</v>
       </c>
       <c r="R10" t="n">
-        <v>6544928</v>
+        <v>6545096</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AD10" t="b">
